--- a/Excel/BulletCfg.xlsx
+++ b/Excel/BulletCfg.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21722"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCEB533-12B8-4BC7-8E42-B15C4B92C313}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093E9FC1-0CAA-4A44-B1E1-7F145DCBE2E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="3030" windowWidth="21150" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2325" windowWidth="17460" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否在售</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,18 @@
   </si>
   <si>
     <t>CanBuy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://Images/bullet01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://Images/bullet03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui://Images/bullet02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +481,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,7 +526,7 @@
         <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -547,7 +555,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -587,13 +595,13 @@
         <v>300</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1">
         <v>18</v>
@@ -616,7 +624,7 @@
         <v>300</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -645,7 +653,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>

--- a/Excel/BulletCfg.xlsx
+++ b/Excel/BulletCfg.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21722"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093E9FC1-0CAA-4A44-B1E1-7F145DCBE2E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA233B08-11DE-44A4-9D64-C53E3B3BD0C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2325" windowWidth="17460" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="17460" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>ui://Images/bullet02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始炮弹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +485,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,7 +602,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
